--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/105050656/Documents/Git/Personal/sorted-blocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD45D151-6256-064A-B059-31C2BFD39B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46CA65-60B8-3740-A527-CD63E04D8C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{6BAEA858-ECDF-0347-95DF-C2CCB1C6356F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Header</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>S64BE</t>
-  </si>
-  <si>
-    <t>Byte[32]</t>
   </si>
   <si>
     <t>Key-1</t>
@@ -141,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,13 +169,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -193,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,11 +198,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -314,68 +299,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="11">
-    <cellStyle name="20% - Accent3" xfId="10" builtinId="38"/>
-    <cellStyle name="60% - Accent2" xfId="5" builtinId="36"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent3" xfId="6" builtinId="37"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="Accent6" xfId="9" builtinId="49"/>
+  <cellStyles count="10">
+    <cellStyle name="20% - Accent3" xfId="9" builtinId="38"/>
+    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="4" builtinId="10"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -687,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30825D7C-757B-A44F-9198-DE4B25E9AFC8}">
-  <dimension ref="A7:AG17"/>
+  <dimension ref="A7:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,32 +685,31 @@
     <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="S7" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
       </c>
       <c r="U7" t="s">
         <v>30</v>
       </c>
-      <c r="W7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>30</v>
+      <c r="Y7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>4</v>
       </c>
@@ -766,7 +747,7 @@
         <v>8</v>
       </c>
       <c r="O8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P8">
         <v>8</v>
@@ -778,54 +759,51 @@
         <v>4</v>
       </c>
       <c r="S8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="T8">
-        <v>4</v>
-      </c>
-      <c r="U8">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="V8">
         <v>4</v>
       </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
       <c r="X8">
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Z8">
         <v>4</v>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AB8">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="AC8">
         <v>4</v>
       </c>
       <c r="AD8">
-        <v>32</v>
-      </c>
-      <c r="AE8">
-        <v>4</v>
-      </c>
-      <c r="AF8">
-        <v>4</v>
-      </c>
-      <c r="AG8">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="Y11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>6</v>
+      </c>
       <c r="AA11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC11" t="s">
         <v>6</v>
@@ -833,17 +811,8 @@
       <c r="AD11" t="s">
         <v>7</v>
       </c>
-      <c r="AE11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
@@ -873,32 +842,27 @@
       <c r="U12" s="14"/>
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="3" t="s">
+      <c r="X12" s="15"/>
+      <c r="Y12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="AA12" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AB12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>20</v>
       </c>
@@ -922,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="P13" t="s">
         <v>26</v>
@@ -937,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="T13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U13" t="s">
         <v>7</v>
@@ -946,19 +910,13 @@
         <v>6</v>
       </c>
       <c r="W13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X13" t="s">
         <v>6</v>
       </c>
-      <c r="Y13" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="G14" s="11" t="s">
@@ -967,56 +925,50 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="4" t="s">
+      <c r="W14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1074,13 +1026,13 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1041,7 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C13:J13"/>
-    <mergeCell ref="O12:Z12"/>
+    <mergeCell ref="O12:X12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A12:J12"/>
   </mergeCells>

--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/105050656/Documents/Git/Personal/sorted-blocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD46CA65-60B8-3740-A527-CD63E04D8C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B67CDA8-FF85-104C-A678-5C919BA7C928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{6BAEA858-ECDF-0347-95DF-C2CCB1C6356F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>Header</t>
   </si>
@@ -44,18 +44,9 @@
     <t>SOP</t>
   </si>
   <si>
-    <t>HeaderLength</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
-    <t>Length</t>
-  </si>
-  <si>
     <t>U32BE</t>
   </si>
   <si>
@@ -83,15 +74,9 @@
     <t>Index-Length</t>
   </si>
   <si>
-    <t>Section-key-1</t>
-  </si>
-  <si>
     <t>U64BE</t>
   </si>
   <si>
-    <t>Section-key-N</t>
-  </si>
-  <si>
     <t>Data-offset-1</t>
   </si>
   <si>
@@ -104,9 +89,6 @@
     <t>Section-Data</t>
   </si>
   <si>
-    <t>Section-Index</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -132,6 +114,72 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>Open Un-Protected Area from bit flips, So we need redundancy</t>
+  </si>
+  <si>
+    <t>Section-Start-1</t>
+  </si>
+  <si>
+    <t>Section-Start-offset-1</t>
+  </si>
+  <si>
+    <t>Section-Start-N</t>
+  </si>
+  <si>
+    <t>Section-Start-offset-N</t>
+  </si>
+  <si>
+    <t>Starting offset from end of index fo the given Section-Start</t>
+  </si>
+  <si>
+    <t>This is the Mod Factor used to divide the TagId within min &amp; max into buckets</t>
+  </si>
+  <si>
+    <t>This helps to check if the requested TagId is even within this section, if not add Indexlength &amp; Datalength to skip to next section</t>
+  </si>
+  <si>
+    <t>Indexed By TagId</t>
+  </si>
+  <si>
+    <t>Computed as =TagId-Mod(TagId,Bucket-Factor)</t>
+  </si>
+  <si>
+    <t>Keys with Data in colum format</t>
+  </si>
+  <si>
+    <t>U8BE</t>
+  </si>
+  <si>
+    <t>Preamble</t>
+  </si>
+  <si>
+    <t>MD5("secret")</t>
+  </si>
+  <si>
+    <t>Start 4 Bytes</t>
+  </si>
+  <si>
+    <t>End 4 Bytes</t>
+  </si>
+  <si>
+    <t>Root-Index</t>
+  </si>
+  <si>
+    <t>Secondary Index</t>
+  </si>
+  <si>
+    <t>Indexed by Time</t>
+  </si>
+  <si>
+    <t>Data-Len-N</t>
+  </si>
+  <si>
+    <t>Data-Len-1</t>
+  </si>
+  <si>
+    <t>Head</t>
   </si>
 </sst>
 </file>
@@ -251,27 +299,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -290,12 +323,217 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -303,7 +541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -311,20 +549,19 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,14 +574,77 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -370,6 +670,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,47 +973,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30825D7C-757B-A44F-9198-DE4B25E9AFC8}">
-  <dimension ref="A7:AD17"/>
+  <dimension ref="A7:AJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="13.5" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="S7" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>29</v>
-      </c>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AC7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
       <c r="C8">
         <v>4</v>
       </c>
@@ -720,330 +1038,597 @@
         <v>4</v>
       </c>
       <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
       <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
         <v>8</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
       </c>
       <c r="N8">
         <v>8</v>
       </c>
       <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>4</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>8</v>
+      </c>
+      <c r="X8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
         <v>16</v>
-      </c>
-      <c r="P8">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>16</v>
-      </c>
-      <c r="T8">
-        <v>16</v>
-      </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <v>4</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-      <c r="Y8">
-        <v>16</v>
-      </c>
-      <c r="Z8">
-        <v>4</v>
-      </c>
-      <c r="AA8">
-        <v>16</v>
-      </c>
-      <c r="AB8">
-        <v>4</v>
-      </c>
-      <c r="AC8">
-        <v>4</v>
       </c>
       <c r="AD8">
         <v>16</v>
       </c>
+      <c r="AE8">
+        <v>16</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>16</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>16</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="Y11" t="s">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ13" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AE14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AA11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>7</v>
+      <c r="AF14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ14" s="18" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16" t="s">
+    <row r="15" spans="1:36" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12" s="2" t="s">
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AF15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="37"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD12" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="G14" s="11" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" s="4" t="s">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
         <v>11</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>13</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
       </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="U17" s="22"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="V18" s="41"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="V19" s="41"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="V20" s="41"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AG20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" s="9"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AG21" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="Y22" s="28"/>
+      <c r="AG22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="31"/>
+      <c r="Y24" s="31"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="O12:X12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A12:J12"/>
+  <mergeCells count="17">
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="J14:R14"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="AB24:AJ24"/>
+    <mergeCell ref="S24:AA24"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="J24:R24"/>
+    <mergeCell ref="W15:X20"/>
+    <mergeCell ref="Y15:Y22"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="A12:R12"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A13:R13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
